--- a/java_workspace/ExcelFileReader/bin/excel_files/safety/2022.xlsx
+++ b/java_workspace/ExcelFileReader/bin/excel_files/safety/2022.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="January" sheetId="1" r:id="rId1"/>
+    <sheet name="February" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -163,7 +163,91 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -518,15 +602,14 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="2"/>
+    <col min="1" max="1" width="42.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1"/>
+    <col min="3" max="4" width="34.5703125" style="2"/>
     <col min="5" max="5" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1025,11 +1108,11 @@
         <v>44590</v>
       </c>
       <c r="B30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>No Accident</v>
+        <f t="shared" ref="C30:C32" si="1">IF(B30=1,"No Accident",IF(B30=2,"Near Accident",IF(B30=3,"Accident","-")))</f>
+        <v>Near Accident</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1042,11 +1125,11 @@
         <v>44591</v>
       </c>
       <c r="B31" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>No Accident</v>
+        <f t="shared" si="1"/>
+        <v>Accident</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1059,22 +1142,22 @@
         <v>44592</v>
       </c>
       <c r="B32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Near Accident</v>
+        <f t="shared" si="1"/>
+        <v>No Accident</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C32">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$B2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$B2=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1085,20 +1168,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="1"/>
-    <col min="3" max="16384" width="34.5703125" style="2"/>
+    <col min="3" max="4" width="34.5703125" style="2"/>
+    <col min="5" max="5" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="34.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44593</v>
       </c>
@@ -1120,8 +1205,13 @@
         <f>IF(B2=1,"No Accident",IF(B2=2,"Near Accident",IF(B2=3,"Accident","-")))</f>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44594</v>
       </c>
@@ -1132,32 +1222,47 @@
         <f t="shared" ref="C3:C32" si="0">IF(B3=1,"No Accident",IF(B3=2,"Near Accident",IF(B3=3,"Accident","-")))</f>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44595</v>
       </c>
       <c r="B4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Near Accident</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44596</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Accident</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44597</v>
       </c>
@@ -1168,32 +1273,47 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44598</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Near Accident</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44599</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Accident</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44600</v>
       </c>
@@ -1204,20 +1324,30 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44601</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Near Accident</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44602</v>
       </c>
@@ -1228,32 +1358,47 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44603</v>
       </c>
       <c r="B12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Near Accident</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44604</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Near Accident</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44605</v>
       </c>
@@ -1264,8 +1409,13 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44606</v>
       </c>
@@ -1276,32 +1426,47 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44607</v>
       </c>
       <c r="B16" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Accident</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44608</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Near Accident</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44609</v>
       </c>
@@ -1312,32 +1477,47 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44610</v>
       </c>
       <c r="B19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Near Accident</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44611</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Accident</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44612</v>
       </c>
@@ -1348,20 +1528,30 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44613</v>
       </c>
       <c r="B22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Accident</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Near Accident</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44614</v>
       </c>
@@ -1372,32 +1562,47 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44615</v>
       </c>
       <c r="B24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Near Accident</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44616</v>
       </c>
       <c r="B25" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>No Accident</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Accident</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44617</v>
       </c>
@@ -1408,8 +1613,13 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44618</v>
       </c>
@@ -1420,20 +1630,30 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44619</v>
       </c>
       <c r="B28" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Accident</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>No Accident</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44620</v>
       </c>
@@ -1444,16 +1664,35 @@
         <f t="shared" si="0"/>
         <v>No Accident</v>
       </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C29">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$B2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B2=1</formula>
     </cfRule>
   </conditionalFormatting>
